--- a/Data/data_info.xlsx
+++ b/Data/data_info.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\HYUNDAE_AI_Challenge_DACON\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246B5576-C7BF-48FF-B14A-07B0F2AF70D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Column Desc" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="용어집" sheetId="2" r:id="rId5"/>
+    <sheet name="Column Desc" sheetId="1" r:id="rId1"/>
+    <sheet name="용어집" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
   <si>
     <t>Feature Name</t>
   </si>
@@ -384,60 +393,66 @@
   </si>
   <si>
     <t>*선원이 입력하는 데이터는 Human Error 존재 할 수 도 있음</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
     </font>
@@ -447,7 +462,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -469,7 +484,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -483,8 +504,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -494,6 +517,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -502,110 +526,106 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -795,26 +815,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.38"/>
-    <col customWidth="1" min="2" max="2" width="62.25"/>
-    <col customWidth="1" min="3" max="3" width="26.38"/>
-    <col customWidth="1" min="4" max="4" width="44.13"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="99" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -837,8 +862,12 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3">
+      <c r="E2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -847,8 +876,23 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4">
+      <c r="E3" t="str">
+        <f>_xlfn.CONCAT($E$2,A2,$E$2)</f>
+        <v>'ARI_CO'</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="str">
+        <f>_xlfn.CONCAT($E$2,B2,$E$2)</f>
+        <v>'도착항의 소속국가(도착항 앞 2글자)'</v>
+      </c>
+      <c r="H3" t="str">
+        <f>_xlfn.CONCAT(E3:G3)</f>
+        <v>'ARI_CO':'도착항의 소속국가(도착항 앞 2글자)'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -857,8 +901,23 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-    </row>
-    <row r="5">
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E28" si="0">_xlfn.CONCAT($E$2,A3,$E$2)</f>
+        <v>'ARI_PO'</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G28" si="1">_xlfn.CONCAT($E$2,B3,$E$2)</f>
+        <v>'도착항의 항구명(도착항 뒤 글자)'</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H28" si="2">_xlfn.CONCAT(E4:G4)</f>
+        <v>'ARI_PO':'도착항의 항구명(도착항 뒤 글자)'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -869,8 +928,23 @@
         <v>12</v>
       </c>
       <c r="D5" s="4"/>
-    </row>
-    <row r="6">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>'SHIP_TYPE_CATEGORY'</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>'선종 통합 바탕으로 5대 선종으로 분류'</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>'SHIP_TYPE_CATEGORY':'선종 통합 바탕으로 5대 선종으로 분류'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -881,8 +955,23 @@
         <v>15</v>
       </c>
       <c r="D6" s="4"/>
-    </row>
-    <row r="7">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>'DIST'</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>'정박지(ber_port)와 접안지 사이의 거리'</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>'DIST':'정박지(ber_port)와 접안지 사이의 거리'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -891,8 +980,23 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-    </row>
-    <row r="8">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>'ATA'</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>'anc_port에 도착한 시점의 utc. 실제 정박 시각(Actual Time of Arrival)'</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>'ATA':'anc_port에 도착한 시점의 utc. 실제 정박 시각(Actual Time of Arrival)'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -903,8 +1007,23 @@
         <v>20</v>
       </c>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>'ID'</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>'선박식별 일련번호'</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>'ID':'선박식별 일련번호'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -915,8 +1034,23 @@
         <v>23</v>
       </c>
       <c r="D9" s="4"/>
-    </row>
-    <row r="10">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>'BREADTH'</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>'선박의 폭'</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>'BREADTH':'선박의 폭'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -927,8 +1061,23 @@
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>'BUILT'</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>'선박의 연령'</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>'BUILT':'선박의 연령'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -939,8 +1088,23 @@
         <v>20</v>
       </c>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>'DEADWEIGHT'</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>'선박의 재화중량톤수'</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>'DEADWEIGHT':'선박의 재화중량톤수'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -951,8 +1115,23 @@
         <v>20</v>
       </c>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>'DEPTH'</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>'선박의 깊이'</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>'DEPTH':'선박의 깊이'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -963,8 +1142,23 @@
         <v>33</v>
       </c>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>'DRAUGHT'</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>'흘수 높이'</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>'DRAUGHT':'흘수 높이'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -975,8 +1169,23 @@
         <v>20</v>
       </c>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>'GT'</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>'용적톤수(Gross Tonnage)값'</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>'GT':'용적톤수(Gross Tonnage)값'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -985,8 +1194,23 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>'LENGTH'</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>'선박의 길이'</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>'LENGTH':'선박의 길이'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -995,8 +1219,23 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>'SHIPMANAGER'</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>'선박 소유주'</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>'SHIPMANAGER':'선박 소유주'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1007,8 +1246,23 @@
         <v>42</v>
       </c>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>'FLAG'</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>'선박의 국적'</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>'FLAG':'선박의 국적'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -1019,8 +1273,23 @@
         <v>42</v>
       </c>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>'U_WIND'</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>'풍향 u벡터'</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>'U_WIND':'풍향 u벡터'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -1031,8 +1300,23 @@
         <v>47</v>
       </c>
       <c r="D19" s="4"/>
-    </row>
-    <row r="20">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>'V_WIND'</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>'풍향 v벡터'</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>'V_WIND':'풍향 v벡터'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
@@ -1043,8 +1327,23 @@
       <c r="D20" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>'AIR_TEMPERATURE'</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>'기온'</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>'AIR_TEMPERATURE':'기온'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -1055,8 +1354,23 @@
         <v>15</v>
       </c>
       <c r="D21" s="4"/>
-    </row>
-    <row r="22">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>'BN'</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>'보퍼트 풍력 계급'</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>'BN':'보퍼트 풍력 계급'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
@@ -1067,8 +1381,23 @@
         <v>55</v>
       </c>
       <c r="D22" s="4"/>
-    </row>
-    <row r="23">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>'ATA_LT'</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>'anc_port에 도착한 시점의 현지 정박 시각(Local Time of Arrival)(단위 : H)'</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>'ATA_LT':'anc_port에 도착한 시점의 현지 정박 시각(Local Time of Arrival)(단위 : H)'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -1079,8 +1408,23 @@
         <v>55</v>
       </c>
       <c r="D23" s="4"/>
-    </row>
-    <row r="24">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>'DUBAI'</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>'해당일의 두바이유 값'</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>'DUBAI':'해당일의 두바이유 값'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -1091,8 +1435,23 @@
         <v>55</v>
       </c>
       <c r="D24" s="4"/>
-    </row>
-    <row r="25">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>'BRENT'</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>'해당일의 브렌트유 값'</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>'BRENT':'해당일의 브렌트유 값'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
@@ -1101,8 +1460,23 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-    </row>
-    <row r="26">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>'WTI'</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>'해당일의 WTI 값'</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>'WTI':'해당일의 WTI 값'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
@@ -1113,8 +1487,23 @@
         <v>64</v>
       </c>
       <c r="D26" s="4"/>
-    </row>
-    <row r="27">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>'BDI_ADJ'</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>'조정된 벌크운임지수'</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>'BDI_ADJ':'조정된 벌크운임지수'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>65</v>
       </c>
@@ -1127,152 +1516,185 @@
       <c r="D27" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>'PORT_SIZE'</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>'접안지 폴리곤 영역의 크기'</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>'PORT_SIZE':'접안지 폴리곤 영역의 크기'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-    </row>
-    <row r="29">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>'CI_HOUR'</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>'대기시간'</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>'CI_HOUR':'대기시간'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="B29" s="11" t="str">
+        <f>CONCATENATE( B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12,",",B13,",",B14,",",B15,",",B16,",",B17,",",B18,",",B19,",",B20,",",B21,",",B22,",",B23,",",B24,",",B25,",",B26,",",B27)</f>
+        <v>도착항의 소속국가(도착항 앞 2글자),도착항의 항구명(도착항 뒤 글자),선종 통합 바탕으로 5대 선종으로 분류,정박지(ber_port)와 접안지 사이의 거리,anc_port에 도착한 시점의 utc. 실제 정박 시각(Actual Time of Arrival),선박식별 일련번호,선박의 폭,선박의 연령,선박의 재화중량톤수,선박의 깊이,흘수 높이,용적톤수(Gross Tonnage)값,선박의 길이,선박 소유주,선박의 국적,풍향 u벡터,풍향 v벡터,기온,보퍼트 풍력 계급,anc_port에 도착한 시점의 현지 정박 시각(Local Time of Arrival)(단위 : H),해당일의 두바이유 값,해당일의 브렌트유 값,해당일의 WTI 값,조정된 벌크운임지수,접안지 폴리곤 영역의 크기,대기시간</v>
+      </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="15">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="15">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="15">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="15">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="15">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="15">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="14.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="14.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="15">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
@@ -1280,28 +1702,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D20"/>
+    <hyperlink ref="D20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.13"/>
-    <col customWidth="1" min="2" max="2" width="53.0"/>
-    <col customWidth="1" min="3" max="3" width="91.13"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="3" max="3" width="91.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>68</v>
       </c>
@@ -1312,7 +1736,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
         <v>71</v>
       </c>
@@ -1323,7 +1747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
         <v>74</v>
       </c>
@@ -1334,7 +1758,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
         <v>77</v>
       </c>
@@ -1345,7 +1769,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
         <v>80</v>
       </c>
@@ -1356,7 +1780,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
         <v>83</v>
       </c>
@@ -1367,7 +1791,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
         <v>86</v>
       </c>
@@ -1376,7 +1800,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
         <v>88</v>
       </c>
@@ -1387,7 +1811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="16" t="s">
         <v>91</v>
       </c>
@@ -1398,7 +1822,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
         <v>94</v>
       </c>
@@ -1409,7 +1833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
         <v>97</v>
       </c>
@@ -1420,7 +1844,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
         <v>48</v>
       </c>
@@ -1431,7 +1855,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
         <v>58</v>
       </c>
@@ -1442,7 +1866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -1453,7 +1877,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="16" t="s">
         <v>105</v>
       </c>
@@ -1464,7 +1888,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="16" t="s">
         <v>66</v>
       </c>
@@ -1473,7 +1897,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>109</v>
       </c>
@@ -1482,7 +1906,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="16" t="s">
         <v>111</v>
       </c>
@@ -1491,7 +1915,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="16" t="s">
         <v>113</v>
       </c>
@@ -1500,7 +1924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -1509,7 +1933,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="16" t="s">
         <v>117</v>
       </c>
@@ -1518,7 +1942,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
         <v>119</v>
       </c>
@@ -1527,7 +1951,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="16" t="s">
         <v>121</v>
       </c>
@@ -1536,21 +1960,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="22" t="s">
         <v>123</v>
       </c>
+      <c r="B25" s="23"/>
       <c r="C25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A25:B25"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>